--- a/players/PSL 2025 - PLAYER LIST.xlsx
+++ b/players/PSL 2025 - PLAYER LIST.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anvi94/Downloads/DeadlyPanthersWebsite/players/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7AB791-C30B-5D4B-92A2-F9173487EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Players Data - PSL 2025" sheetId="1" r:id="rId4"/>
+    <sheet name="Players Data - PSL 2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="412">
   <si>
     <t>REGISTRATION NO:</t>
   </si>
@@ -1244,91 +1253,134 @@
   </si>
   <si>
     <t>MANY GSB TEAMS</t>
+  </si>
+  <si>
+    <t>NISCHITH PADIYAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1518,3451 +1570,3471 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="56" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="26.5"/>
-    <col customWidth="1" min="3" max="3" width="22.38"/>
-    <col customWidth="1" min="4" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="77.38"/>
+    <col min="1" max="1" width="28.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="34" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29" style="7" customWidth="1"/>
+    <col min="5" max="5" width="86.33203125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="3">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    <row r="47" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3">
-        <v>47.0</v>
-      </c>
-      <c r="B48" s="4" t="s">
+    <row r="48" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="51" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="3">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="3">
-        <v>52.0</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="53" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3">
-        <v>53.0</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="54" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="55" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3">
-        <v>55.0</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="56" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3">
-        <v>56.0</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="57" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3">
-        <v>57.0</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="58" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="3">
-        <v>58.0</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="59" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="60" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="61" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="3">
-        <v>61.0</v>
-      </c>
-      <c r="B62" s="4" t="s">
+    <row r="62" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="63" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3">
-        <v>63.0</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="64" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="65" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="66" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="3">
-        <v>66.0</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="67" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3">
-        <v>67.0</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="68" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="3">
-        <v>68.0</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="69" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="3">
-        <v>69.0</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="70" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="3">
-        <v>70.0</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="71" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="3">
-        <v>71.0</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="72" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="3">
-        <v>72.0</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="73" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="3">
-        <v>73.0</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="74" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="3">
-        <v>74.0</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="75" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="3">
-        <v>75.0</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="76" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="4" t="s">
+      <c r="D76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="3">
-        <v>76.0</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="3">
-        <v>77.0</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="78" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="3">
-        <v>78.0</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="79" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="3">
-        <v>79.0</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="80" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="81" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="3">
-        <v>81.0</v>
-      </c>
-      <c r="B82" s="4" t="s">
+    <row r="82" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="4" t="s">
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="3">
-        <v>82.0</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="83" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="4" t="s">
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="3">
-        <v>83.0</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="84" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="3">
-        <v>84.0</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="85" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="3">
-        <v>85.0</v>
-      </c>
-      <c r="B86" s="4" t="s">
+    <row r="86" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="3">
-        <v>86.0</v>
-      </c>
-      <c r="B87" s="4" t="s">
+    <row r="87" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="3">
-        <v>87.0</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="88" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="3">
-        <v>88.0</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    <row r="89" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="3">
-        <v>89.0</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    <row r="90" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="4" t="s">
+      <c r="D90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="B91" s="4" t="s">
+    <row r="91" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="3">
-        <v>91.0</v>
-      </c>
-      <c r="B92" s="4" t="s">
+    <row r="92" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="4" t="s">
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="3">
-        <v>92.0</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="93" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="3">
-        <v>93.0</v>
-      </c>
-      <c r="B94" s="4" t="s">
+    <row r="94" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="3">
-        <v>94.0</v>
-      </c>
-      <c r="B95" s="4" t="s">
+    <row r="95" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="3">
-        <v>95.0</v>
-      </c>
-      <c r="B96" s="4" t="s">
+    <row r="96" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="3">
-        <v>96.0</v>
-      </c>
-      <c r="B97" s="4" t="s">
+    <row r="97" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="3">
-        <v>97.0</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="98" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="4" t="s">
+      <c r="D98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="B99" s="4" t="s">
+    <row r="99" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="3">
-        <v>99.0</v>
-      </c>
-      <c r="B100" s="4" t="s">
+    <row r="100" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="4" t="s">
+      <c r="D100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="B101" s="4" t="s">
+    <row r="101" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="4" t="s">
+      <c r="D101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="3">
-        <v>101.0</v>
-      </c>
-      <c r="B102" s="4" t="s">
+    <row r="102" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="4" t="s">
+      <c r="D102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="3">
-        <v>102.0</v>
-      </c>
-      <c r="B103" s="4" t="s">
+    <row r="103" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="4" t="s">
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="3">
-        <v>103.0</v>
-      </c>
-      <c r="B104" s="4" t="s">
+    <row r="104" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="4" t="s">
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="3">
-        <v>104.0</v>
-      </c>
-      <c r="B105" s="4" t="s">
+    <row r="105" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="4" t="s">
+      <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="3">
-        <v>105.0</v>
-      </c>
-      <c r="B106" s="4" t="s">
+    <row r="106" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="3">
-        <v>106.0</v>
-      </c>
-      <c r="B107" s="4" t="s">
+    <row r="107" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="4" t="s">
+      <c r="D107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="3">
-        <v>107.0</v>
-      </c>
-      <c r="B108" s="4" t="s">
+    <row r="108" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="4" t="s">
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="3">
-        <v>108.0</v>
-      </c>
-      <c r="B109" s="4" t="s">
+    <row r="109" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="3">
-        <v>109.0</v>
-      </c>
-      <c r="B110" s="4" t="s">
+    <row r="110" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="4" t="s">
+      <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="3">
-        <v>110.0</v>
-      </c>
-      <c r="B111" s="4" t="s">
+    <row r="111" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="4" t="s">
+      <c r="D111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="3">
-        <v>111.0</v>
-      </c>
-      <c r="B112" s="4" t="s">
+    <row r="112" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="4" t="s">
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="3">
-        <v>112.0</v>
-      </c>
-      <c r="B113" s="4" t="s">
+    <row r="113" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="4" t="s">
+      <c r="D113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="3">
-        <v>113.0</v>
-      </c>
-      <c r="B114" s="4" t="s">
+    <row r="114" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="4" t="s">
+      <c r="D114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="3">
-        <v>114.0</v>
-      </c>
-      <c r="B115" s="4" t="s">
+    <row r="115" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="3">
-        <v>115.0</v>
-      </c>
-      <c r="B116" s="4" t="s">
+    <row r="116" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="4" t="s">
+      <c r="D116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="3">
-        <v>116.0</v>
-      </c>
-      <c r="B117" s="4" t="s">
+    <row r="117" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="4" t="s">
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="3">
-        <v>117.0</v>
-      </c>
-      <c r="B118" s="4" t="s">
+    <row r="118" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="3">
-        <v>118.0</v>
-      </c>
-      <c r="B119" s="4" t="s">
+    <row r="119" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="3">
-        <v>119.0</v>
-      </c>
-      <c r="B120" s="4" t="s">
+    <row r="120" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="3">
-        <v>120.0</v>
-      </c>
-      <c r="B121" s="4" t="s">
+    <row r="121" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="3">
-        <v>121.0</v>
-      </c>
-      <c r="B122" s="4" t="s">
+    <row r="122" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="3">
-        <v>122.0</v>
-      </c>
-      <c r="B123" s="4" t="s">
+    <row r="123" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="4" t="s">
+      <c r="D123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="3">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="4" t="s">
+    <row r="124" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="4" t="s">
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="3">
-        <v>124.0</v>
-      </c>
-      <c r="B125" s="4" t="s">
+    <row r="125" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="3">
-        <v>125.0</v>
-      </c>
-      <c r="B126" s="4" t="s">
+    <row r="126" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="4" t="s">
+      <c r="D126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="3">
-        <v>126.0</v>
-      </c>
-      <c r="B127" s="4" t="s">
+    <row r="127" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="3">
-        <v>127.0</v>
-      </c>
-      <c r="B128" s="4" t="s">
+    <row r="128" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="4" t="s">
+      <c r="D128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="3">
-        <v>128.0</v>
-      </c>
-      <c r="B129" s="4" t="s">
+    <row r="129" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="4" t="s">
+      <c r="D129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="3">
-        <v>129.0</v>
-      </c>
-      <c r="B130" s="4" t="s">
+    <row r="130" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="4" t="s">
+      <c r="D130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="3">
-        <v>130.0</v>
-      </c>
-      <c r="B131" s="4" t="s">
+    <row r="131" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="3">
-        <v>131.0</v>
-      </c>
-      <c r="B132" s="4" t="s">
+    <row r="132" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="4" t="s">
+      <c r="D132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="3">
-        <v>132.0</v>
-      </c>
-      <c r="B133" s="4" t="s">
+    <row r="133" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="4" t="s">
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="3">
-        <v>133.0</v>
-      </c>
-      <c r="B134" s="4" t="s">
+    <row r="134" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="4" t="s">
+      <c r="D134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="3">
-        <v>134.0</v>
-      </c>
-      <c r="B135" s="4" t="s">
+    <row r="135" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="4" t="s">
+      <c r="D135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="3">
-        <v>135.0</v>
-      </c>
-      <c r="B136" s="4" t="s">
+    <row r="136" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="3">
-        <v>136.0</v>
-      </c>
-      <c r="B137" s="4" t="s">
+    <row r="137" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="3">
-        <v>137.0</v>
-      </c>
-      <c r="B138" s="4" t="s">
+    <row r="138" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="3">
-        <v>138.0</v>
-      </c>
-      <c r="B139" s="4" t="s">
+    <row r="139" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="4" t="s">
+      <c r="D139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="3">
-        <v>139.0</v>
-      </c>
-      <c r="B140" s="4" t="s">
+    <row r="140" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="4" t="s">
+      <c r="D140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="3">
-        <v>140.0</v>
-      </c>
-      <c r="B141" s="4" t="s">
+    <row r="141" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="4" t="s">
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="3">
-        <v>141.0</v>
-      </c>
-      <c r="B142" s="4" t="s">
+    <row r="142" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="3">
-        <v>142.0</v>
-      </c>
-      <c r="B143" s="4" t="s">
+    <row r="143" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="4" t="s">
+      <c r="D143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="3">
-        <v>143.0</v>
-      </c>
-      <c r="B144" s="4" t="s">
+    <row r="144" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="4" t="s">
+      <c r="D144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="3">
-        <v>144.0</v>
-      </c>
-      <c r="B145" s="4" t="s">
+    <row r="145" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="3">
-        <v>145.0</v>
-      </c>
-      <c r="B146" s="4" t="s">
+    <row r="146" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="4" t="s">
+      <c r="D146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="3">
-        <v>146.0</v>
-      </c>
-      <c r="B147" s="4" t="s">
+    <row r="147" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E147" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="3">
-        <v>147.0</v>
-      </c>
-      <c r="B148" s="4" t="s">
+    <row r="148" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E148" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="3">
-        <v>148.0</v>
-      </c>
-      <c r="B149" s="4" t="s">
+    <row r="149" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E149" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="3">
-        <v>149.0</v>
-      </c>
-      <c r="B150" s="4" t="s">
+    <row r="150" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="4" t="s">
+      <c r="D150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="3">
-        <v>150.0</v>
-      </c>
-      <c r="B151" s="4" t="s">
+    <row r="151" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="4" t="s">
+      <c r="D151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="3">
-        <v>151.0</v>
-      </c>
-      <c r="B152" s="4" t="s">
+    <row r="152" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="4" t="s">
+      <c r="D152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="3">
-        <v>152.0</v>
-      </c>
-      <c r="B153" s="4" t="s">
+    <row r="153" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="E153" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="3">
-        <v>153.0</v>
-      </c>
-      <c r="B154" s="4" t="s">
+    <row r="154" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="4" t="s">
+      <c r="D154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="3">
-        <v>154.0</v>
-      </c>
-      <c r="B155" s="4" t="s">
+    <row r="155" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E155" s="4" t="s">
+      <c r="E155" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="3">
-        <v>155.0</v>
-      </c>
-      <c r="B156" s="4" t="s">
+    <row r="156" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="4" t="s">
+      <c r="D156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="3">
-        <v>156.0</v>
-      </c>
-      <c r="B157" s="4" t="s">
+    <row r="157" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="4" t="s">
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="3">
-        <v>157.0</v>
-      </c>
-      <c r="B158" s="4" t="s">
+    <row r="158" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="3">
-        <v>158.0</v>
-      </c>
-      <c r="B159" s="4" t="s">
+    <row r="159" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="3">
-        <v>159.0</v>
-      </c>
-      <c r="B160" s="4" t="s">
+    <row r="160" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E160" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="3">
-        <v>160.0</v>
-      </c>
-      <c r="B161" s="4" t="s">
+    <row r="161" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="4" t="s">
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="3">
-        <v>161.0</v>
-      </c>
-      <c r="B162" s="4" t="s">
+    <row r="162" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="4" t="s">
+      <c r="D162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="3">
-        <v>162.0</v>
-      </c>
-      <c r="B163" s="4" t="s">
+    <row r="163" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" s="4" t="s">
+      <c r="D163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="3">
-        <v>163.0</v>
-      </c>
-      <c r="B164" s="4" t="s">
+    <row r="164" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E164" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="3">
-        <v>164.0</v>
-      </c>
-      <c r="B165" s="4" t="s">
+    <row r="165" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165" s="4" t="s">
+      <c r="D165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="3">
-        <v>165.0</v>
-      </c>
-      <c r="B166" s="4" t="s">
+    <row r="166" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166" s="4" t="s">
+      <c r="D166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="3">
-        <v>166.0</v>
-      </c>
-      <c r="B167" s="4" t="s">
+    <row r="167" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="4" t="s">
+      <c r="D167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="3">
-        <v>167.0</v>
-      </c>
-      <c r="B168" s="4" t="s">
+    <row r="168" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E168" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="3">
-        <v>168.0</v>
-      </c>
-      <c r="B169" s="4" t="s">
+    <row r="169" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169" s="4" t="s">
+      <c r="D169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="3">
-        <v>169.0</v>
-      </c>
-      <c r="B170" s="4" t="s">
+    <row r="170" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="4" t="s">
+      <c r="D170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="3">
-        <v>170.0</v>
-      </c>
-      <c r="B171" s="4" t="s">
+    <row r="171" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171" s="4" t="s">
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="3">
-        <v>171.0</v>
-      </c>
-      <c r="B172" s="4" t="s">
+    <row r="172" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="4" t="s">
+      <c r="D172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="3">
-        <v>172.0</v>
-      </c>
-      <c r="B173" s="4" t="s">
+    <row r="173" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="4" t="s">
+      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="3">
-        <v>173.0</v>
-      </c>
-      <c r="B174" s="4" t="s">
+    <row r="174" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="4" t="s">
+      <c r="D174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="3">
-        <v>174.0</v>
-      </c>
-      <c r="B175" s="4" t="s">
+    <row r="175" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="4" t="s">
+      <c r="D175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="3">
-        <v>175.0</v>
-      </c>
-      <c r="B176" s="4" t="s">
+    <row r="176" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E176" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="3">
-        <v>176.0</v>
-      </c>
-      <c r="B177" s="4" t="s">
+    <row r="177" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="3">
-        <v>177.0</v>
-      </c>
-      <c r="B178" s="4" t="s">
+    <row r="178" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="E178" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="3">
-        <v>178.0</v>
-      </c>
-      <c r="B179" s="4" t="s">
+    <row r="179" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="E179" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="3">
-        <v>179.0</v>
-      </c>
-      <c r="B180" s="4" t="s">
+    <row r="180" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="E180" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="3">
-        <v>180.0</v>
-      </c>
-      <c r="B181" s="4" t="s">
+    <row r="181" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E181" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="3">
-        <v>181.0</v>
-      </c>
-      <c r="B182" s="4" t="s">
+    <row r="182" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="4" t="s">
+      <c r="D182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="3">
-        <v>182.0</v>
-      </c>
-      <c r="B183" s="4" t="s">
+    <row r="183" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E183" s="4" t="s">
+      <c r="D183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="3">
-        <v>183.0</v>
-      </c>
-      <c r="B184" s="4" t="s">
+    <row r="184" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184" s="4" t="s">
+      <c r="D184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="3">
-        <v>184.0</v>
-      </c>
-      <c r="B185" s="4" t="s">
+    <row r="185" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185" s="4" t="s">
+      <c r="D185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="3">
-        <v>185.0</v>
-      </c>
-      <c r="B186" s="4" t="s">
+    <row r="186" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="4" t="s">
+      <c r="D186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="3">
-        <v>186.0</v>
-      </c>
-      <c r="B187" s="4" t="s">
+    <row r="187" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E187" s="4" t="s">
+      <c r="E187" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="3">
-        <v>187.0</v>
-      </c>
-      <c r="B188" s="4" t="s">
+    <row r="188" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" s="4" t="s">
+      <c r="D188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="3">
-        <v>188.0</v>
-      </c>
-      <c r="B189" s="4" t="s">
+    <row r="189" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E189" s="4" t="s">
+      <c r="D189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="3">
-        <v>189.0</v>
-      </c>
-      <c r="B190" s="4" t="s">
+    <row r="190" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" s="4" t="s">
+      <c r="D190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="3">
-        <v>190.0</v>
-      </c>
-      <c r="B191" s="4" t="s">
+    <row r="191" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="4" t="s">
+      <c r="D191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="3">
-        <v>191.0</v>
-      </c>
-      <c r="B192" s="4" t="s">
+    <row r="192" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" s="4" t="s">
+      <c r="D192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="3">
-        <v>192.0</v>
-      </c>
-      <c r="B193" s="4" t="s">
+    <row r="193" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="4" t="s">
+      <c r="D193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="3">
-        <v>193.0</v>
-      </c>
-      <c r="B194" s="4" t="s">
+    <row r="194" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" s="4" t="s">
+      <c r="D194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="3">
-        <v>194.0</v>
-      </c>
-      <c r="B195" s="4" t="s">
+    <row r="195" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195" s="4" t="s">
+      <c r="D195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="3">
-        <v>195.0</v>
-      </c>
-      <c r="B196" s="4" t="s">
+    <row r="196" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D196" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E196" s="4" t="s">
+      <c r="E196" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="3">
-        <v>196.0</v>
-      </c>
-      <c r="B197" s="4" t="s">
+    <row r="197" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="4" t="s">
+      <c r="D197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="3">
-        <v>197.0</v>
-      </c>
-      <c r="B198" s="5" t="s">
+    <row r="198" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D198" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" s="5" t="s">
+      <c r="D198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="3">
-        <v>198.0</v>
-      </c>
-      <c r="B199" s="5" t="s">
+    <row r="199" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D199" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="5" t="s">
+      <c r="D199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="3">
-        <v>199.0</v>
-      </c>
-      <c r="B200" s="6" t="s">
+    <row r="200" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D200" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="5" t="s">
+      <c r="D200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="7">
-        <v>200.0</v>
-      </c>
-      <c r="B201" s="5" t="s">
+    <row r="201" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D201" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="8" t="s">
+      <c r="D201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>410</v>
       </c>
     </row>
+    <row r="202" spans="1:5" s="7" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="9">
+        <v>201</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
--- a/players/PSL 2025 - PLAYER LIST.xlsx
+++ b/players/PSL 2025 - PLAYER LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anvi94/Downloads/DeadlyPanthersWebsite/players/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7AB791-C30B-5D4B-92A2-F9173487EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687C091-5757-C644-B345-A0AB56ED4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players Data - PSL 2025" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="414">
   <si>
     <t>REGISTRATION NO:</t>
   </si>
@@ -1256,6 +1256,12 @@
   </si>
   <si>
     <t>NISCHITH PADIYAR</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>VINYAS KAMATH</t>
   </si>
 </sst>
 </file>
@@ -1581,11 +1587,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="56" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5032,6 +5038,23 @@
         <v>323</v>
       </c>
     </row>
+    <row r="203" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/players/PSL 2025 - PLAYER LIST.xlsx
+++ b/players/PSL 2025 - PLAYER LIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anvi94/Downloads/DeadlyPanthersWebsite/players/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687C091-5757-C644-B345-A0AB56ED4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45BE4A2-CC1F-8347-8D91-53C2475DA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players Data - PSL 2025" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="422">
   <si>
     <t>REGISTRATION NO:</t>
   </si>
@@ -262,9 +262,6 @@
     <t>RISING STARS MANGALORE, MANGALAPURA, SAPTHAMI</t>
   </si>
   <si>
-    <t>PRANAV SHENOY 1</t>
-  </si>
-  <si>
     <t>DIDN'T PLAY</t>
   </si>
   <si>
@@ -1262,13 +1259,40 @@
   </si>
   <si>
     <t>VINYAS KAMATH</t>
+  </si>
+  <si>
+    <t>PRANAV BHAT</t>
+  </si>
+  <si>
+    <t>SALIGRAMA</t>
+  </si>
+  <si>
+    <t>GSB KINGS, PSL</t>
+  </si>
+  <si>
+    <t>SANKETH RAO</t>
+  </si>
+  <si>
+    <t>PRANAV SHENOY</t>
+  </si>
+  <si>
+    <t>SWASTIK PRABHU</t>
+  </si>
+  <si>
+    <t>BANTKAL BROTHERS UDUPI</t>
+  </si>
+  <si>
+    <t>RAHUL KAMATH</t>
+  </si>
+  <si>
+    <t>PUNDALIKA KAMATH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1297,8 +1321,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1308,6 +1344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1367,6 +1409,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,11 +1656,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="56" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1655,20 +1724,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2119,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -2128,23 +2197,23 @@
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2153,16 +2222,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2170,16 +2239,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2187,7 +2256,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>53</v>
@@ -2196,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2204,7 +2273,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
@@ -2213,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2221,49 +2290,49 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2272,7 +2341,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>47</v>
@@ -2289,7 +2358,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>18</v>
@@ -2298,7 +2367,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2306,16 +2375,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2323,7 +2392,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
@@ -2340,16 +2409,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2357,16 +2426,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2374,7 +2443,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -2383,7 +2452,7 @@
         <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2391,16 +2460,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2408,16 +2477,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2425,7 +2494,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
@@ -2434,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2442,16 +2511,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2459,32 +2528,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2493,7 +2562,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>37</v>
@@ -2502,7 +2571,7 @@
         <v>21</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2510,7 +2579,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
@@ -2519,7 +2588,7 @@
         <v>40</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2527,10 +2596,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>40</v>
@@ -2544,7 +2613,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
@@ -2553,7 +2622,7 @@
         <v>40</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2561,7 +2630,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
@@ -2570,7 +2639,7 @@
         <v>40</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2578,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>18</v>
@@ -2587,7 +2656,7 @@
         <v>40</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2595,16 +2664,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2612,7 +2681,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
@@ -2621,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2629,7 +2698,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>47</v>
@@ -2638,7 +2707,7 @@
         <v>21</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2646,7 +2715,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
@@ -2655,7 +2724,7 @@
         <v>7</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2663,7 +2732,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>47</v>
@@ -2672,7 +2741,7 @@
         <v>7</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2680,16 +2749,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2697,10 +2766,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>7</v>
@@ -2709,21 +2778,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
+    <row r="66" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="13">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2731,7 +2800,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
@@ -2740,7 +2809,7 @@
         <v>7</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2748,7 +2817,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>47</v>
@@ -2765,16 +2834,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2782,7 +2851,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>47</v>
@@ -2791,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2799,16 +2868,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2816,7 +2885,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -2825,23 +2894,23 @@
         <v>7</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="13">
+        <v>72</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2850,7 +2919,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>18</v>
@@ -2859,7 +2928,7 @@
         <v>7</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2867,7 +2936,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>43</v>
@@ -2876,24 +2945,24 @@
         <v>40</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
+      <c r="B76" s="14" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>93</v>
+      <c r="D76" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2901,7 +2970,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
@@ -2910,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2918,10 +2987,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>7</v>
@@ -2935,16 +3004,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2952,7 +3021,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>18</v>
@@ -2961,7 +3030,7 @@
         <v>40</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2969,7 +3038,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>43</v>
@@ -2978,7 +3047,7 @@
         <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2986,7 +3055,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>43</v>
@@ -2995,7 +3064,7 @@
         <v>7</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3003,7 +3072,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>6</v>
@@ -3012,7 +3081,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3020,7 +3089,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>18</v>
@@ -3029,7 +3098,7 @@
         <v>7</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3037,7 +3106,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>37</v>
@@ -3046,7 +3115,7 @@
         <v>21</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3054,16 +3123,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3071,16 +3140,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3088,7 +3157,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>18</v>
@@ -3097,7 +3166,7 @@
         <v>21</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3105,16 +3174,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3122,10 +3191,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>7</v>
@@ -3139,33 +3208,33 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="13">
+        <v>91</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3173,16 +3242,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3190,16 +3259,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3207,16 +3276,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3224,16 +3293,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3241,16 +3310,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3258,16 +3327,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3275,16 +3344,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3292,7 +3361,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
@@ -3301,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3309,16 +3378,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3326,10 +3395,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>7</v>
@@ -3343,16 +3412,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3360,16 +3429,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3377,16 +3446,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3394,7 +3463,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>18</v>
@@ -3403,7 +3472,7 @@
         <v>50</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3411,16 +3480,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3428,7 +3497,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>18</v>
@@ -3437,7 +3506,7 @@
         <v>7</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3445,7 +3514,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>53</v>
@@ -3454,7 +3523,7 @@
         <v>21</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3462,7 +3531,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>18</v>
@@ -3471,7 +3540,7 @@
         <v>7</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3479,7 +3548,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
@@ -3496,7 +3565,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>39</v>
@@ -3505,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3513,7 +3582,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>47</v>
@@ -3522,7 +3591,7 @@
         <v>7</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3530,7 +3599,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>47</v>
@@ -3539,7 +3608,7 @@
         <v>7</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3547,7 +3616,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
@@ -3556,7 +3625,7 @@
         <v>21</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3564,7 +3633,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -3581,16 +3650,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3598,7 +3667,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>18</v>
@@ -3607,7 +3676,7 @@
         <v>50</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3615,7 +3684,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>18</v>
@@ -3624,7 +3693,7 @@
         <v>40</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3632,7 +3701,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
@@ -3641,7 +3710,7 @@
         <v>21</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3649,7 +3718,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
@@ -3658,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3666,7 +3735,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>43</v>
@@ -3675,7 +3744,7 @@
         <v>40</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3683,7 +3752,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>18</v>
@@ -3692,7 +3761,7 @@
         <v>7</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3700,16 +3769,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3717,7 +3786,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
@@ -3726,7 +3795,7 @@
         <v>21</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3734,16 +3803,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3751,7 +3820,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
@@ -3760,7 +3829,7 @@
         <v>21</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3768,16 +3837,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="D128" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3785,16 +3854,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="D129" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3802,7 +3871,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
@@ -3819,7 +3888,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>24</v>
@@ -3836,7 +3905,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>10</v>
@@ -3845,7 +3914,7 @@
         <v>7</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3853,16 +3922,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3870,10 +3939,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>7</v>
@@ -3887,10 +3956,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>7</v>
@@ -3904,7 +3973,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
@@ -3913,7 +3982,7 @@
         <v>40</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3921,7 +3990,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>72</v>
@@ -3930,7 +3999,7 @@
         <v>40</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3941,13 +4010,13 @@
         <v>9</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3955,16 +4024,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="D139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3972,16 +4041,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3989,16 +4058,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4006,16 +4075,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4023,7 +4092,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>6</v>
@@ -4032,7 +4101,7 @@
         <v>7</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4040,16 +4109,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4057,7 +4126,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>72</v>
@@ -4074,7 +4143,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
@@ -4083,7 +4152,7 @@
         <v>7</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4091,7 +4160,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
@@ -4100,7 +4169,7 @@
         <v>21</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4108,10 +4177,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>40</v>
@@ -4125,16 +4194,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4142,16 +4211,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4159,16 +4228,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="D151" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4176,16 +4245,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4193,16 +4262,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4210,7 +4279,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>15</v>
@@ -4219,7 +4288,7 @@
         <v>7</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4227,7 +4296,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -4244,7 +4313,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>13</v>
@@ -4253,7 +4322,7 @@
         <v>7</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4261,16 +4330,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4278,16 +4347,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4295,7 +4364,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
@@ -4312,10 +4381,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>40</v>
@@ -4329,32 +4398,32 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="2" t="s">
+    </row>
+    <row r="162" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="13">
+        <v>161</v>
+      </c>
+      <c r="B162" s="14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="1">
-        <v>161</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="C162" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4363,16 +4432,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4380,16 +4449,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4397,7 +4466,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>18</v>
@@ -4414,7 +4483,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>65</v>
@@ -4423,7 +4492,7 @@
         <v>7</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4431,7 +4500,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>18</v>
@@ -4448,7 +4517,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>72</v>
@@ -4457,7 +4526,7 @@
         <v>21</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4465,7 +4534,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>18</v>
@@ -4474,7 +4543,7 @@
         <v>7</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4482,16 +4551,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4499,16 +4568,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4516,33 +4585,33 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="13">
+        <v>172</v>
+      </c>
+      <c r="B173" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="1">
-        <v>172</v>
-      </c>
-      <c r="B173" s="2" t="s">
+      <c r="C173" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="14" t="s">
         <v>360</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4550,7 +4619,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>18</v>
@@ -4559,7 +4628,7 @@
         <v>7</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4567,7 +4636,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>18</v>
@@ -4576,7 +4645,7 @@
         <v>7</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4584,16 +4653,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4601,16 +4670,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4618,7 +4687,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>18</v>
@@ -4627,7 +4696,7 @@
         <v>21</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4635,7 +4704,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>18</v>
@@ -4652,7 +4721,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>43</v>
@@ -4661,7 +4730,7 @@
         <v>40</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4669,16 +4738,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4686,7 +4755,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>10</v>
@@ -4695,7 +4764,7 @@
         <v>7</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4703,7 +4772,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>10</v>
@@ -4712,7 +4781,7 @@
         <v>7</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4720,7 +4789,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>10</v>
@@ -4729,7 +4798,7 @@
         <v>7</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4737,7 +4806,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>10</v>
@@ -4746,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4754,16 +4823,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4771,16 +4840,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4788,7 +4857,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>10</v>
@@ -4797,7 +4866,7 @@
         <v>7</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4805,7 +4874,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>10</v>
@@ -4814,7 +4883,7 @@
         <v>7</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4822,16 +4891,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4839,16 +4908,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4856,7 +4925,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>18</v>
@@ -4873,16 +4942,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4890,7 +4959,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>18</v>
@@ -4899,7 +4968,7 @@
         <v>7</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4907,7 +4976,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>10</v>
@@ -4916,7 +4985,7 @@
         <v>7</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4924,7 +4993,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>18</v>
@@ -4933,7 +5002,7 @@
         <v>40</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4941,7 +5010,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>43</v>
@@ -4950,7 +5019,7 @@
         <v>7</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4958,16 +5027,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="D198" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4975,16 +5044,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4992,16 +5061,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="D200" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5009,7 +5078,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>18</v>
@@ -5018,7 +5087,7 @@
         <v>7</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="202" spans="1:5" s="7" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5026,7 +5095,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>43</v>
@@ -5035,15 +5104,15 @@
         <v>7</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>413</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>18</v>
@@ -5052,7 +5121,92 @@
         <v>7</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="16">
+        <v>203</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="9">
+        <v>204</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="9">
+        <v>205</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="9">
+        <v>206</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="9">
+        <v>207</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="18" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/players/PSL 2025 - PLAYER LIST.xlsx
+++ b/players/PSL 2025 - PLAYER LIST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anvi94/Downloads/DeadlyPanthersWebsite/players/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45BE4A2-CC1F-8347-8D91-53C2475DA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49AFA13-8FFF-EB46-9E89-65822ABB43A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="448">
   <si>
     <t>REGISTRATION NO:</t>
   </si>
@@ -1286,6 +1286,84 @@
   </si>
   <si>
     <t>PUNDALIKA KAMATH</t>
+  </si>
+  <si>
+    <t>KIRAN KAMAT</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>ADITYA BHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGALORE </t>
+  </si>
+  <si>
+    <t>AVATAR ELEVEN MALPE</t>
+  </si>
+  <si>
+    <t>RAKSHITH SHENOY</t>
+  </si>
+  <si>
+    <t>VIVEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBAGILU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDUPI BLASTERS </t>
+  </si>
+  <si>
+    <t>JAIKAR STRIKERS</t>
+  </si>
+  <si>
+    <t>PANCHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADARSH BHAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VV WARRIORS </t>
+  </si>
+  <si>
+    <t>ASHLESH SHENOY</t>
+  </si>
+  <si>
+    <t>VEERANJANEYA CRICKETERS KAUP, SPARK MANGALAPURA,GPL 2023 UDUPI BLASTERS</t>
+  </si>
+  <si>
+    <t>ABHISHEK PAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEADLY PANTHERS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULKI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLALANKE FIGHTERS </t>
+  </si>
+  <si>
+    <t>NITHIN KAMATH</t>
+  </si>
+  <si>
+    <t>PRAJWAL KAMATH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK KNIGHT RIDERS </t>
+  </si>
+  <si>
+    <t>VASANTH</t>
+  </si>
+  <si>
+    <t>UDUPI FRIENDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANK COBRA </t>
   </si>
 </sst>
 </file>
@@ -1656,11 +1734,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E210" sqref="E210"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="56" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5209,6 +5287,244 @@
         <v>252</v>
       </c>
     </row>
+    <row r="209" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="5">
+        <v>208</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="5">
+        <v>209</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="5">
+        <v>210</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="5">
+        <v>211</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="5">
+        <v>212</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="5">
+        <v>213</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="5">
+        <v>214</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="5">
+        <v>215</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="5">
+        <v>216</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="5">
+        <v>217</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="5">
+        <v>218</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="5">
+        <v>219</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="5">
+        <v>220</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="5">
+        <v>221</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/players/PSL 2025 - PLAYER LIST.xlsx
+++ b/players/PSL 2025 - PLAYER LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anvi94/Downloads/DeadlyPanthersWebsite/players/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49AFA13-8FFF-EB46-9E89-65822ABB43A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345D8DCE-4BDF-9A49-BE16-5C2D2A3402A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="447">
   <si>
     <t>REGISTRATION NO:</t>
   </si>
@@ -1313,9 +1313,6 @@
   </si>
   <si>
     <t xml:space="preserve">UDUPI BLASTERS </t>
-  </si>
-  <si>
-    <t>JAIKAR STRIKERS</t>
   </si>
   <si>
     <t>PANCHAM</t>
@@ -1734,11 +1731,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="56" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5357,44 +5354,44 @@
     </row>
     <row r="213" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>202</v>
+        <v>431</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>431</v>
+        <v>191</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>432</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>191</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>107</v>
@@ -5403,83 +5400,83 @@
         <v>7</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>72</v>
+        <v>439</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="5">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>440</v>
+        <v>72</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>441</v>
+        <v>154</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="5">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>442</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>154</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="5">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>107</v>
@@ -5488,41 +5485,24 @@
         <v>7</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="5">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>445</v>
+        <v>258</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>107</v>
+        <v>425</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="5">
-        <v>221</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E222" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/players/PSL 2025 - PLAYER LIST.xlsx
+++ b/players/PSL 2025 - PLAYER LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anvi94/Downloads/DeadlyPanthersWebsite/players/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345D8DCE-4BDF-9A49-BE16-5C2D2A3402A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF6166B-B3E0-2540-AB47-9AF82929B876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="454">
   <si>
     <t>REGISTRATION NO:</t>
   </si>
@@ -799,9 +799,6 @@
     <t>VIKAS PAI</t>
   </si>
   <si>
-    <t>BANGALORE CHALLENGERS</t>
-  </si>
-  <si>
     <t>SATHVIK BALIGA</t>
   </si>
   <si>
@@ -1361,13 +1358,37 @@
   </si>
   <si>
     <t xml:space="preserve">TANK COBRA </t>
+  </si>
+  <si>
+    <t>RAJATH NAYAK</t>
+  </si>
+  <si>
+    <t>SLNC ULLAL</t>
+  </si>
+  <si>
+    <t>DILIP PAI</t>
+  </si>
+  <si>
+    <t>AVINASH NAYAK</t>
+  </si>
+  <si>
+    <t>RAJATH</t>
+  </si>
+  <si>
+    <t>MANJESHWAR</t>
+  </si>
+  <si>
+    <t>TC SCORCHERS/ENJOY TITANS</t>
+  </si>
+  <si>
+    <t>KBC TANKCOBRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1404,6 +1425,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1456,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1511,6 +1539,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1731,11 +1762,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="56" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2263,7 +2294,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -3759,16 +3790,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>258</v>
+        <v>446</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>259</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3776,7 +3807,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
@@ -3785,7 +3816,7 @@
         <v>21</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3793,7 +3824,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
@@ -3802,7 +3833,7 @@
         <v>40</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3810,7 +3841,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>43</v>
@@ -3819,7 +3850,7 @@
         <v>40</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3827,7 +3858,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>18</v>
@@ -3836,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3844,16 +3875,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3861,7 +3892,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
@@ -3870,7 +3901,7 @@
         <v>21</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3878,16 +3909,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3895,7 +3926,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
@@ -3912,10 +3943,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>7</v>
@@ -3929,10 +3960,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>7</v>
@@ -3946,7 +3977,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
@@ -3963,7 +3994,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>24</v>
@@ -3980,7 +4011,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>10</v>
@@ -3989,7 +4020,7 @@
         <v>7</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3997,16 +4028,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4014,10 +4045,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>7</v>
@@ -4031,10 +4062,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>7</v>
@@ -4048,7 +4079,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
@@ -4057,7 +4088,7 @@
         <v>40</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4065,7 +4096,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>72</v>
@@ -4085,13 +4116,13 @@
         <v>9</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4099,16 +4130,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="D139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4116,7 +4147,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>193</v>
@@ -4125,7 +4156,7 @@
         <v>7</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4133,7 +4164,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>107</v>
@@ -4142,7 +4173,7 @@
         <v>7</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4150,7 +4181,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>123</v>
@@ -4159,7 +4190,7 @@
         <v>50</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4167,7 +4198,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>6</v>
@@ -4176,7 +4207,7 @@
         <v>7</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4184,7 +4215,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>177</v>
@@ -4201,7 +4232,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>72</v>
@@ -4218,7 +4249,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
@@ -4227,7 +4258,7 @@
         <v>7</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4235,7 +4266,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
@@ -4244,7 +4275,7 @@
         <v>21</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4252,10 +4283,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>40</v>
@@ -4269,7 +4300,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>193</v>
@@ -4278,7 +4309,7 @@
         <v>21</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4286,7 +4317,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>201</v>
@@ -4295,7 +4326,7 @@
         <v>7</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4303,10 +4334,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>7</v>
@@ -4320,7 +4351,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>107</v>
@@ -4337,16 +4368,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4354,7 +4385,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>15</v>
@@ -4363,7 +4394,7 @@
         <v>7</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4371,7 +4402,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>72</v>
@@ -4388,7 +4419,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>13</v>
@@ -4397,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4405,7 +4436,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>103</v>
@@ -4414,7 +4445,7 @@
         <v>7</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4422,16 +4453,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4439,7 +4470,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
@@ -4456,10 +4487,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>40</v>
@@ -4473,16 +4504,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4490,10 +4521,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>7</v>
@@ -4507,16 +4538,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4524,16 +4555,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4541,7 +4572,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>18</v>
@@ -4558,7 +4589,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>65</v>
@@ -4567,7 +4598,7 @@
         <v>7</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4575,7 +4606,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>18</v>
@@ -4592,7 +4623,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>72</v>
@@ -4601,7 +4632,7 @@
         <v>21</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4609,7 +4640,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>18</v>
@@ -4618,7 +4649,7 @@
         <v>7</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4626,7 +4657,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>201</v>
@@ -4635,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4643,16 +4674,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4660,7 +4691,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>90</v>
@@ -4677,7 +4708,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>43</v>
@@ -4686,7 +4717,7 @@
         <v>7</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4694,7 +4725,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>18</v>
@@ -4703,7 +4734,7 @@
         <v>7</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4711,7 +4742,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>18</v>
@@ -4720,7 +4751,7 @@
         <v>7</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4728,16 +4759,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4745,10 +4776,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>40</v>
@@ -4762,7 +4793,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>18</v>
@@ -4779,7 +4810,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>18</v>
@@ -4796,7 +4827,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>43</v>
@@ -4805,7 +4836,7 @@
         <v>40</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4813,16 +4844,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4830,7 +4861,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>10</v>
@@ -4847,7 +4878,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>10</v>
@@ -4856,7 +4887,7 @@
         <v>7</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4864,7 +4895,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>10</v>
@@ -4881,7 +4912,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>10</v>
@@ -4890,7 +4921,7 @@
         <v>7</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4898,16 +4929,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4915,7 +4946,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>107</v>
@@ -4924,7 +4955,7 @@
         <v>21</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4932,7 +4963,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>10</v>
@@ -4949,7 +4980,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>10</v>
@@ -4958,7 +4989,7 @@
         <v>7</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4966,7 +4997,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>107</v>
@@ -4975,7 +5006,7 @@
         <v>7</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4983,7 +5014,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>107</v>
@@ -4992,7 +5023,7 @@
         <v>7</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5000,7 +5031,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>18</v>
@@ -5017,7 +5048,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>107</v>
@@ -5026,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5034,7 +5065,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>18</v>
@@ -5043,7 +5074,7 @@
         <v>7</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5051,7 +5082,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>10</v>
@@ -5060,7 +5091,7 @@
         <v>7</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5068,7 +5099,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>18</v>
@@ -5077,7 +5108,7 @@
         <v>40</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5085,7 +5116,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>43</v>
@@ -5094,7 +5125,7 @@
         <v>7</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5102,10 +5133,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>7</v>
@@ -5119,10 +5150,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>7</v>
@@ -5136,10 +5167,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>7</v>
@@ -5153,7 +5184,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>18</v>
@@ -5162,7 +5193,7 @@
         <v>7</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="1:5" s="7" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5170,7 +5201,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>43</v>
@@ -5179,15 +5210,15 @@
         <v>7</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>412</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>18</v>
@@ -5204,16 +5235,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="D204" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204" s="17" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5221,7 +5252,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>18</v>
@@ -5238,7 +5269,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>27</v>
@@ -5247,7 +5278,7 @@
         <v>40</v>
       </c>
       <c r="E206" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5255,7 +5286,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C207" s="18" t="s">
         <v>27</v>
@@ -5272,7 +5303,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C208" s="18" t="s">
         <v>18</v>
@@ -5289,7 +5320,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>201</v>
@@ -5298,7 +5329,7 @@
         <v>50</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5306,16 +5337,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C210" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5323,7 +5354,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>72</v>
@@ -5340,16 +5371,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C212" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5357,7 +5388,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>18</v>
@@ -5374,7 +5405,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>107</v>
@@ -5383,7 +5414,7 @@
         <v>7</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5391,7 +5422,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>107</v>
@@ -5400,7 +5431,7 @@
         <v>7</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5408,7 +5439,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>72</v>
@@ -5417,7 +5448,7 @@
         <v>7</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5425,16 +5456,16 @@
         <v>217</v>
       </c>
       <c r="B217" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C217" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5442,7 +5473,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>72</v>
@@ -5459,7 +5490,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>107</v>
@@ -5468,7 +5499,7 @@
         <v>7</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5476,7 +5507,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>107</v>
@@ -5485,7 +5516,7 @@
         <v>7</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -5496,13 +5527,81 @@
         <v>258</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="5">
+        <v>222</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="5">
+        <v>223</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E223" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="5">
+        <v>224</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="5">
+        <v>225</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E225" s="19" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
